--- a/ePICreator/Paracetamol.xlsx
+++ b/ePICreator/Paracetamol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62655C1A-720D-4947-B591-814B78B64358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC3436-92A8-DB40-982C-50B9CE4467F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -96,12 +96,6 @@
     <t>mg</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>TEST PURPOSES ONLY - Karvea (irbesartan) 75 mg tablets</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Packaging_type</t>
   </si>
   <si>
-    <t>packaging.quantity</t>
-  </si>
-  <si>
     <t>packaging_material</t>
   </si>
   <si>
@@ -261,12 +252,6 @@
     <t>identifier_value</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>2018-06-23T08:38:00+02:00</t>
-  </si>
-  <si>
     <t>https://www.gravitatehealth.eu/sid/doc</t>
   </si>
   <si>
@@ -327,9 +312,6 @@
     <t>Medicinal Product</t>
   </si>
   <si>
-    <t>4471bb15-7f52-4fcd-b615-8674ce6eb91e</t>
-  </si>
-  <si>
     <t>statusSuply</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
   </si>
   <si>
     <t>statusSuplyID</t>
-  </si>
-  <si>
-    <t>address_text</t>
   </si>
   <si>
     <t>address_use</t>
@@ -812,45 +791,12 @@
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>acmedrug</t>
-  </si>
-  <si>
-    <t>acmedrug-ing1</t>
-  </si>
-  <si>
-    <t>acmedrug-ing2</t>
-  </si>
-  <si>
-    <t>acmedrug-ing3</t>
-  </si>
-  <si>
-    <t>acmedrugman</t>
-  </si>
-  <si>
-    <t>acmedrug-man</t>
-  </si>
-  <si>
     <t>ACME industry</t>
   </si>
   <si>
-    <t>street tal e tal</t>
-  </si>
-  <si>
     <t xml:space="preserve">street x and y </t>
   </si>
   <si>
-    <t>acme drug blister tabs</t>
-  </si>
-  <si>
-    <t>acme drug</t>
-  </si>
-  <si>
-    <t>acmesub</t>
-  </si>
-  <si>
-    <t>acmedrug-</t>
-  </si>
-  <si>
     <t>languageID</t>
   </si>
   <si>
@@ -876,6 +822,45 @@
   </si>
   <si>
     <t>address_postalCode</t>
+  </si>
+  <si>
+    <t>inside_packaging_identifier</t>
+  </si>
+  <si>
+    <t>inside_packaging_type</t>
+  </si>
+  <si>
+    <t>inside_packaging_typeID</t>
+  </si>
+  <si>
+    <t>inside_packaging_quantity</t>
+  </si>
+  <si>
+    <t>inside_packaging_material</t>
+  </si>
+  <si>
+    <t>inside_packaging_materialID</t>
+  </si>
+  <si>
+    <t>paracetamol</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>parecetamol-amn</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>parecatamol tabs</t>
+  </si>
+  <si>
+    <t>packaging_quantity</t>
   </si>
 </sst>
 </file>
@@ -997,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1285,7 +1270,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,7 +1281,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,25 +1312,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1354,7 +1339,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1389,6 +1374,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1397,7 +1383,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,31 +1412,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -1459,37 +1445,37 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1502,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,38 +1500,32 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1588,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1616,112 +1596,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
       <c r="H2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1708,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,31 +1736,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1795,13 +1769,13 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5">
         <v>100000072082</v>
@@ -1815,13 +1789,13 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>100000072082</v>
@@ -1835,10 +1809,10 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1847,10 +1821,10 @@
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1905,7 +1879,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,13 +1905,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1946,10 +1920,10 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1961,7 +1935,7 @@
         <v>100000073864</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -1977,7 +1951,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2002,67 +1976,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
-        <v>96</v>
-      </c>
       <c r="T1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="U1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="V1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -2071,55 +2045,55 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S2" s="10">
         <v>100000000000</v>
@@ -2133,18 +2107,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="11" customWidth="1"/>
+    <col min="1" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,67 +2135,61 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="8">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2231,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,7 +2224,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2270,73 +2238,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2">
         <v>100000073496</v>
@@ -2345,7 +2331,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>200000003222</v>
@@ -2362,7 +2348,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,22 +2367,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -2408,28 +2394,28 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Paracetamol.xlsx
+++ b/ePICreator/Paracetamol.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC3436-92A8-DB40-982C-50B9CE4467F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E887F-4B3F-4D4A-BA7F-5A1AE6F92FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
-    <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
-    <sheet name="ClinicalUseDefinition" sheetId="2" r:id="rId2"/>
-    <sheet name="Composition" sheetId="3" r:id="rId3"/>
+    <sheet name="Organization" sheetId="7" r:id="rId1"/>
+    <sheet name="RegulatedAuthorization" sheetId="9" r:id="rId2"/>
+    <sheet name="Substance" sheetId="10" r:id="rId3"/>
     <sheet name="Ingredient" sheetId="4" r:id="rId4"/>
-    <sheet name="ManufacturedItemDefinition" sheetId="5" r:id="rId5"/>
-    <sheet name="MedicinalProductDefinition" sheetId="6" r:id="rId6"/>
-    <sheet name="Organization" sheetId="7" r:id="rId7"/>
+    <sheet name="MedicinalProductDefinition" sheetId="6" r:id="rId5"/>
+    <sheet name="ManufacturedItemDefinition" sheetId="5" r:id="rId6"/>
+    <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId7"/>
     <sheet name="PackagedProductDefinition" sheetId="8" r:id="rId8"/>
-    <sheet name="RegulatedAuthorization" sheetId="9" r:id="rId9"/>
-    <sheet name="Substance" sheetId="10" r:id="rId10"/>
+    <sheet name="ClinicalUseDefinition" sheetId="2" r:id="rId9"/>
+    <sheet name="Composition" sheetId="3" r:id="rId10"/>
     <sheet name="Bundle" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>route</t>
   </si>
   <si>
-    <t>target_species</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Oral use</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -117,12 +111,6 @@
     <t>ETJ7Z6XBU4</t>
   </si>
   <si>
-    <t>15FIX9V2JP</t>
-  </si>
-  <si>
-    <t>J0E2756Z7N</t>
-  </si>
-  <si>
     <t>EU/1/96/007/035</t>
   </si>
   <si>
@@ -150,21 +138,9 @@
     <t>language</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>75 mg</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>Human use</t>
-  </si>
-  <si>
     <t>ORG-100000789</t>
   </si>
   <si>
@@ -180,21 +156,12 @@
     <t>physical</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>Packaging_type</t>
   </si>
   <si>
     <t>packaging_material</t>
   </si>
   <si>
-    <t>EU/1/97/049/001</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -219,21 +186,9 @@
     <t>Validated (UNII)</t>
   </si>
   <si>
-    <t>White to off-white, biconvex, and oval-shaped with a heart debossed on one side and the number 2771 engraved on the other side.</t>
-  </si>
-  <si>
-    <t>428.53</t>
-  </si>
-  <si>
     <t>exact</t>
   </si>
   <si>
-    <t>C25H28N6O</t>
-  </si>
-  <si>
-    <t>(+)-6-methyleneandrosta-1,4-diene-3,17-dione</t>
-  </si>
-  <si>
     <t>Chemical Name</t>
   </si>
   <si>
@@ -243,9 +198,6 @@
     <t>Marketing Authorisation</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>identifier_system</t>
   </si>
   <si>
@@ -264,15 +216,9 @@
     <t>routeID</t>
   </si>
   <si>
-    <t>target_speciesID</t>
-  </si>
-  <si>
     <t>conceptID</t>
   </si>
   <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
-  </si>
-  <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
   </si>
   <si>
@@ -297,21 +243,9 @@
     <t>active ingredient - basis of strength</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>domainID</t>
-  </si>
-  <si>
     <t>typeID</t>
   </si>
   <si>
-    <t>MedicinalProduct</t>
-  </si>
-  <si>
-    <t>Medicinal Product</t>
-  </si>
-  <si>
     <t>statusSuply</t>
   </si>
   <si>
@@ -337,9 +271,6 @@
   </si>
   <si>
     <t>statusDate</t>
-  </si>
-  <si>
-    <t>2015-02-07T13:28:17Z</t>
   </si>
   <si>
     <t>packaging_identifier</t>
@@ -791,21 +722,9 @@
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>ACME industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street x and y </t>
-  </si>
-  <si>
     <t>languageID</t>
   </si>
   <si>
-    <t>Karvea</t>
-  </si>
-  <si>
-    <t>irbesartan</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -845,29 +764,101 @@
     <t>paracetamol</t>
   </si>
   <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>parecetamol-amn</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
-    <t>parecatamol tabs</t>
-  </si>
-  <si>
     <t>packaging_quantity</t>
+  </si>
+  <si>
+    <t>4'-HYDROXYACETANILIDE</t>
+  </si>
+  <si>
+    <t>C8H9NO2</t>
+  </si>
+  <si>
+    <t>151.16</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>FERRER INTERNACIONAL, S.A.</t>
+  </si>
+  <si>
+    <t>72.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLOCATIL 1 g tablets </t>
+  </si>
+  <si>
+    <t>Gran Vía Carlos III, 94</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Magnesium stearate</t>
+  </si>
+  <si>
+    <t>70097M6I30</t>
+  </si>
+  <si>
+    <t>POVIDONE, UNSPECIFIED</t>
+  </si>
+  <si>
+    <t>FZ989GH94E</t>
+  </si>
+  <si>
+    <t>SILICA, COLLOIDAL ANHYDROUS</t>
+  </si>
+  <si>
+    <t>STARCH, CORN</t>
+  </si>
+  <si>
+    <t>O8232NY3SJ</t>
+  </si>
+  <si>
+    <t>STARCH, POTATO</t>
+  </si>
+  <si>
+    <t>8I089SAH3T</t>
+  </si>
+  <si>
+    <t>DOLOCATIL 1 g tablets</t>
+  </si>
+  <si>
+    <t>DOLOCATIL 1 g tablets, 20 tablets</t>
+  </si>
+  <si>
+    <t>2010-10-13</t>
+  </si>
+  <si>
+    <t>1000 mg</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>dolocatil</t>
+  </si>
+  <si>
+    <t>Dolocatil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -929,6 +920,50 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4277B8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4175B4"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -950,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,6 +999,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,25 +1321,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="1" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,99 +1344,95 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>143</v>
+      <c r="B2" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>200000002152</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="8">
+        <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200000002152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>100000073619</v>
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100000109093</v>
+        <v>128</v>
+      </c>
+      <c r="L2" s="14">
+        <v>8028</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A92C9B-205A-9C46-BBE8-35C473DF2B66}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,76 +1443,80 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1494,38 +1532,38 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1534,84 +1572,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1B0E2-F796-B640-AFF9-FCC100C95224}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="G4" s="2"/>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100000072062</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A92C9B-205A-9C46-BBE8-35C473DF2B66}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,80 +1683,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>125</v>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1705,13 +1759,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4AB6-8E39-3645-80A9-C32AEEA52BB0}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1725,7 +1779,7 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,46 +1790,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21">
+      <c r="A2" s="1"/>
+      <c r="B2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="5">
         <v>100000072082</v>
@@ -1783,19 +1837,19 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5">
         <v>100000072082</v>
@@ -1803,158 +1857,141 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6">
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159036F-525A-5C4A-8302-BF7069D12754}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100000073864</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200000002152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:W2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
@@ -1967,135 +2004,105 @@
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
       <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="10">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="10">
         <v>100000000000</v>
       </c>
     </row>
@@ -2105,20 +2112,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
-  <dimension ref="A1:M2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159036F-525A-5C4A-8302-BF7069D12754}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="11" width="11" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,71 +2137,137 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8">
-        <v>220000000034</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000073864</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200000002152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>200000002152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200000002152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100000073619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2201,17 +2275,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -2224,7 +2298,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,100 +2312,100 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="Q1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="R1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="S1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1"/>
+      <c r="B2" s="18">
+        <v>672669</v>
+      </c>
+      <c r="C2" t="s">
         <v>141</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2">
         <v>100000073496</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N2">
         <v>200000003222</v>
@@ -2344,79 +2418,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1B0E2-F796-B640-AFF9-FCC100C95224}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100000072062</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ePICreator/Paracetamol.xlsx
+++ b/ePICreator/Paracetamol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7924CF-5F05-CD42-B8E9-A99CB0277A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE13B6-43F2-4644-A2FA-C0CEB01EC198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -375,9 +375,6 @@
     <t>paracetamol</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>packaging_quantity</t>
   </si>
   <si>
@@ -466,13 +463,210 @@
   </si>
   <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento porque contiene
+información importante para usted.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/li&gt;
+&lt;li&gt;Si tiene alguna duda, consulte a su médico o farmacéutico.&lt;/li&gt;
+&lt;li&gt;Este medicamento se le ha recetado a usted y no debe dárselo a otras personas, aunque tengan los mismos
+síntomas, ya que puede perjudicarles.&lt;/li&gt;
+&lt;li&gt;Si experimienta efectos adversos, consulte a su médico o farmacéutico incluso si se trata de efectos
+adversos que no aparecen en este prospecto. Ver sección 4.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Contenido del prospecto:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;Qué es Dolocatil y para qué se utiliza&lt;/li&gt;
+&lt;li&gt;Qué necesita saber antes de empezar a tomar Dolocatil&lt;/li&gt;
+&lt;li&gt;Cómo tomar Dolocatil&lt;/li&gt;
+&lt;li&gt;Posibles efectos adversos&lt;/li&gt;
+&lt;li&gt;Conservación de Dolocatil&lt;/li&gt;
+&lt;li&gt;Contenido del envase e información adicional.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dolocatil pertenece al grupo de medicamentos llamados analgésicos y antipiréticos.&lt;/p&gt;
+&lt;p&gt;Se utiliza para el tratamiento de los síntomas del dolor y la fiebre.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;No tome Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Si es alérgico (hipersensible) al paracetamol o a alguno de los demás componentes de este
+medicamento (incluidos en la sección 6).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Advertencias y precauciones&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tomar más dosis de la recomendada en el apartado 3. Cómo tomar Dolocatil.&lt;/p&gt;
+&lt;p&gt;En pacientes asmáticos sensibles a ácido acetilsalicílico se deberá consultar con el médico antes de tomar
+este medicamento.&lt;/p&gt;
+&lt;p&gt;Si padece alguna enfermedad del hígado, riñón, corazón o del pulmón, o tiene anemia (disminución de la
+tasa de hemoglobina en la sangre, a causa o no de una disminución de glóbulos rojos), deberá consultar con
+su médico antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;Cuando está en tratamiento con algún medicamento para tratar la epilepsia debe consultar al médico antes
+de tomar este medicamento, debido a que cuando se usan al mismo tiempo, se disminuye la eficacia y se
+potencia la hepatotoxicidad del paracetamol, especialmente en tratamientos con dosis altas de paracetamol.&lt;/p&gt;
+&lt;p&gt;En alcohólicos crónicos se deberá tener la precaución de no tomar más de 2 g/en 24 horas de paracetamol.&lt;/p&gt;
+&lt;p&gt;Si el dolor se mantiene durante más de 5 días, la fiebre durante más de 3 días, o bien el dolor o la fiebre
+empeoran o aparecen otros síntomas, se debe consultar al médico y reevaluar la situación clínica.&lt;/p&gt;
+&lt;p&gt;En niños menores de 15 años consulte a su médico o farmacéutico ya que existen otras presentaciones con
+dosis que se adaptan a este grupo de pacientes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Otros medicamentos y Dolocatil:&lt;/strong&gt;
+Informe a su médico o farmacéutico si está utilizando o ha utilizado recientemente cualquier otro
+medicamento, incluso los adquiridos sin receta médica.
+El paracetamol puede tener interacciones con los siguientes medicamentos:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Medicamento para evitar coágulos en la sangre: Anticoagulantes orales (acenocumarol, warfarina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la epilepsia: Antiepilépticos (lamotrigina, fenitoina u otras hidantoínas,
+fenobarbital, metilfenobarbital, primidona, carbamacepina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la tuberculosis: (isoniazida, rifampicina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la depresión y las convulsiones: Barbitúricos (utilizados como hipnóticos,
+sedantes y anticonvulsivantes)&lt;/li&gt;
+&lt;li&gt;Medicamentos para disminuir los niveles de colesterol en sangre: (colestiramina)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para aumentar la eliminación de orina (diuréticos del asa como los del grupo
+furosemida)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para el tratamiento de la gota (probenecid y sulfinpirazona)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para evitar nauseas y vómitos: Metoclopramida y domperidona&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados en el tratamiento de la tensión arterial alta (hipertensión) y las alteraciones
+del ritmo del corazón (arritmias cardiacas): Propranolol.&lt;/li&gt;
+&lt;li&gt;Flucloxacilina (antiobiótico), debido a un riesgo grave de alteración de la sangre y los fluidos (acidosis
+metabólica con alto desequilibrio aniónico) que debe ser tratada urgentemente y que puede ocurrir
+particularmente en caso de insuficiencia renal grave, sepsis (cuando las bacterias y sus toxinas circulan
+en la sangre que da lugar a daño de órganos), desnutrición, alcoholismo crónico y si se utilizan las
+dosis máximas diarias de paracetamol.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;No utilizar con otros analgésicos (medicamentos que disminuyen el dolor) sin consultar al médico.&lt;/p&gt;
+&lt;p&gt;Como norma general para cualquier medicamento es recomendable informar sistemáticamente al médico o
+farmacéutico si está en tratamiento con otro medicamento. En caso de tratamiento con anticoagulantes
+orales se puede administrar ocasionalmente como analgésico de elección.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Interferencias con pruebas analíticas:&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Si le van a realizar alguna prueba analítica (incluidos análisis de sangre, orina, pruebas cutáneas que
+utilizan alergenos, etc.) comunique al médico que está tomando este medicamento, ya que puede alterar los
+resultados de dichas pruebas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Dolocatil con alimentos, bebidas y alcohol&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La utilización de paracetamol en pacientes que consumen habitualmente alcohol (tres o más bebidas
+alcohólicas al día: cerveza, vino, licor... al día) puede provocar daño en el hígado.&lt;/p&gt;
+&lt;p&gt;La toma de este medicamento con alimentos no afecta a la eficacia del mismo.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo y lactancia:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada o en período de lactancia, cree que podría estar embarazada o tiene intención de
+quedarse embarazada, consulte a su médico o farmacéutico antes de utilizar este medicamento.&lt;/p&gt;
+&lt;p&gt;El consumo de medicamentos durante el embarazo puede ser peligroso para el embrión o el feto, y debe ser
+vigilado por su médico.&lt;/p&gt;
+&lt;p&gt;En caso necesario, se puede utilizar Dolocatil durante el embarazo. Debe utilizar la dosis más baja posible
+que reduzca el dolor o la fiebre y utilizarla durante el menor tiempo posible. Contacte con su médico si el
+dolor o la fiebre no disminuyen o si necesita tomar el medicamento con más frecuencia.
+Pueden aparecer pequeñas cantidades de paracetamol en la leche materna, por lo tanto se recomienda que
+consulte a su médico o farmacéutico antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La influencia del paracetamol sobre la capacidad de conducir y utilizar máquinas es nula o insignificante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las
+indicadas por su médico o farmacéutico. En caso de duda, consulte de nuevo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;Recuerde tomar su medicamento. Dolocatil debe tomarse por vía oral.&lt;/p&gt;
+&lt;p&gt;Según sus preferencias, los comprimidos se pueden ingerir directamente o partidos por la mitad, con ayuda
+de un vaso de líquido, preferentemente agua.&lt;/p&gt;
+&lt;p&gt;La ranura es sólo para poder fraccionar y facilitar la deglución pero no para dividir en dosis iguales.
+Consulte a su médico o farmacéutico si tiene dudas.&lt;/p&gt;
+&lt;p&gt;La dosis recomendada es:&lt;/p&gt;
+&lt;p&gt;Adultos y adolescentes mayores de 15 años: la dosis habitual es de 1 comprimido (1 g de paracetamol) 3
+veces al día. Las tomas deben espaciarse al menos 4 horas. No se tomarán más de 4 comprimidos (4 g) en
+24 horas.&lt;/p&gt;
+&lt;p&gt;Pacientes con enfermedades del hígado: antes de tomar este medicamento tienen que consultar a su médico.
+Deben tomar la cantidad de medicamento prescrita por su médico con un intervalo mínimo entre cada toma
+de 8h. No deben tomar más de 2 gramos de paracetamol en 24 horas, repartidos en 2 tomas.&lt;/p&gt;
+&lt;p&gt;Pacientes con enfermedades del riñón: antes de tomar este medicamento tienen que consultar a su médico.
+Tomar como máximo 500 miligramos por toma.
+Debido a la dosis, 1 gramo de paracetamol, no está indicado para este grupo de pacientes.&lt;/p&gt;
+&lt;p&gt;Pacientes de edad avanzada: deben consultar a su médico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en niños y adolescentes&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No utilizar en niños menores de 15 años.&lt;/p&gt;
+&lt;p&gt;Si se estima que la acción del medicamento es demasiado fuerte o débil, comuníqueselo a su médico o
+farmacéutico.&lt;/p&gt;
+&lt;p&gt;Cuando se requiera la administración de dosis inferiores a 1 gramo de paracetamol por toma se deberán
+emplear otras presentaciones de paracetamol que se adapten a la dosificación requerida.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si toma más Dolocatil del que debe&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Debe consultar inmediatamente a su médico o a su farmacéutico. En caso de sobredosis o ingestión
+accidental, acudir inmediatamente a un centro médico o llamar al Servicio de Información Toxicológica,
+(teléfono 91 562 04 20), indicando el medicamento y la cantidad ingerida.
+Si ha ingerido una sobredosis, debe acudir inmediatamente a un centro médico aunque no note los
+síntomas, ya que a menudo éstos no se manifiestan hasta pasados 3 días desde la ingestión de la sobredosis,
+incluso en casos de intoxicación grave.&lt;/p&gt;
+&lt;p&gt;Los síntomas de sobredosis pueden ser: mareos, vómitos, pérdida de apetito, coloración amarillenta de la
+piel y los ojos (ictericia), dolor abdominal e inflamación del páncreas (pancreatitis).&lt;/p&gt;
+&lt;p&gt;El tratamiento de la sobredosis es más eficaz si se inicia dentro de las 4 horas siguientes a la ingestión del
+medicamento.&lt;/p&gt;
+&lt;p&gt;Los pacientes en tratamiento con barbitúricos o los alcohólicos crónicos pueden ser más susceptibles a la
+toxicidad de una sobredosis de paracetamol.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si olvidó tomar Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tome una dosis doble para compensar las dosis olvidadas, simplemente tome la dosis olvidada cuando
+se acuerde, tomando las siguientes dosis con la separación entre tomas indicada en cada caso (al menos 4
+horas).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas
+las personas los sufran.&lt;/p&gt;
+&lt;p&gt;Efectos adversos raros que se pueden producir (pueden afectar hasta 1 de cada 1.000 personas), son:
+malestar, bajada de la tensión (hipotensión), y aumento de los niveles de transaminasas en sangre.&lt;/p&gt;
+&lt;p&gt;Efectos adversos muy raros que se pueden producir (pueden afectar hasta 1 de cada 10.000 personas) son:
+Enfermedades del riñón, orina turbia, dermatitis alérgica (erupción cutánea), ictericia (coloración
+amarillenta de la piel), alteraciones sanguíneas (agranulocitosis, leucopenia, neutropenia, anemia
+hemolítica) e hipoglucemia (bajada de azúcar en sangre). Se han notificado muy raramente casos de
+reacciones graves en la piel.&lt;/p&gt;
+&lt;p&gt;El paracetamol puede dañar el hígado cuando se toma en dosis altas o en tratamientos prolongados.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Comunicación de efectos adversos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico, incluso si se trata de
+posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos directamente a
+través del Sistema Español de Farmacovigilancia de medicamentos de Uso Humano:
+&lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;. Mediante la comunicación de efectos adversos usted puede contribuir a
+proporcionar más información sobre la seguridad de este medicamento.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/p&gt;
+&lt;p&gt;Este medicamento no requiere condiciones especiales de conservación.&lt;/p&gt;
+&lt;p&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase (después de
+CAD.). La fecha de caducidad es el último día del mes que se indica.&lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los
+medicamentos que no necesita en el Punto SIGRE de la farmacia. En caso de duda pregunte a su
+farmacéutico cómo deshacerse de los envases y de los medicamentos que ya no necesita. De esta forma,
+ayudará a proteger el medio ambiente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Composición de Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;El principio activo es paracetamol.&lt;/li&gt;
+&lt;li&gt;Los demás componentes son: povidona, estearato magnésico, sílice coloidal anhidra, almidón glicolato
+sódico (Tipo A) (origen: patata) y almidón pregelatinizado (origen: maíz).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Aspecto de Dolocatil y contenido del envase&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Comprimidos oblongos, de color blanco y ranurados, en envases de 20 y 40 comprimidos.
+Los comprimidos están ranurados lo que permite partirlos por la mitad.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular de la autorización de comercialización&lt;/strong&gt;
+Ferrer Internacional, S.A.
+Gran Vía Carlos III, 94
+08028 - Barcelona
+Responsable de la fabricación
+Ferrer Internacional, S.A.
+Joan XXIII, 10
+08950 – Esplugues de Llobregat (Barcelona)
+o
+Ferrer Internacional, S.A.
+Joan Buscallá, 1-9
+08173 - Sant Cugat del Vallés (Barcelona)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fecha de la última revisión de este prospecto: diciembre 2022&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La información detallada y actualizada de este medicamento está disponible en la página Web de la
+Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://cima.aemps.es/ids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,6 +772,14 @@
       <color rgb="FFC7254E"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,10 +798,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,8 +825,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,7 +1196,7 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1012,13 +1217,13 @@
         <v>35</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" t="s">
         <v>119</v>
-      </c>
-      <c r="K2" t="s">
-        <v>120</v>
       </c>
       <c r="L2" s="14">
         <v>8028</v>
@@ -1033,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,13 +1301,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -1111,15 +1316,33 @@
         <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1221,10 +1444,10 @@
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1233,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1242,10 +1465,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1547,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -1333,16 +1556,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -1425,10 +1648,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1445,10 +1668,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1468,7 +1691,7 @@
         <v>108</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1495,7 +1718,7 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
@@ -1515,10 +1738,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1535,10 +1758,10 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1587,30 +1810,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,97 +1841,106 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
       <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>100000000000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{683A9142-4DA9-BB43-AB6B-95A701B5F77E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1760,10 +1992,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1840,10 +2072,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1935,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
         <v>37</v>
@@ -1977,13 +2209,13 @@
         <v>672669</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1992,7 +2224,7 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>123456</v>

--- a/ePICreator/Paracetamol.xlsx
+++ b/ePICreator/Paracetamol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE13B6-43F2-4644-A2FA-C0CEB01EC198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1875C6-714F-4940-B179-9E40EADC5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -659,7 +659,10 @@
 Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://cima.aemps.es/ids</t>
+    <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>72.741|0xE857DA811B4A6F3BD57810C45D2EA1ED</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1816,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1898,7 +1901,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>147</v>

--- a/ePICreator/Paracetamol.xlsx
+++ b/ePICreator/Paracetamol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7924CF-5F05-CD42-B8E9-A99CB0277A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1875C6-714F-4940-B179-9E40EADC5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -375,9 +375,6 @@
     <t>paracetamol</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>packaging_quantity</t>
   </si>
   <si>
@@ -466,13 +463,213 @@
   </si>
   <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento porque contiene
+información importante para usted.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/li&gt;
+&lt;li&gt;Si tiene alguna duda, consulte a su médico o farmacéutico.&lt;/li&gt;
+&lt;li&gt;Este medicamento se le ha recetado a usted y no debe dárselo a otras personas, aunque tengan los mismos
+síntomas, ya que puede perjudicarles.&lt;/li&gt;
+&lt;li&gt;Si experimienta efectos adversos, consulte a su médico o farmacéutico incluso si se trata de efectos
+adversos que no aparecen en este prospecto. Ver sección 4.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Contenido del prospecto:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;Qué es Dolocatil y para qué se utiliza&lt;/li&gt;
+&lt;li&gt;Qué necesita saber antes de empezar a tomar Dolocatil&lt;/li&gt;
+&lt;li&gt;Cómo tomar Dolocatil&lt;/li&gt;
+&lt;li&gt;Posibles efectos adversos&lt;/li&gt;
+&lt;li&gt;Conservación de Dolocatil&lt;/li&gt;
+&lt;li&gt;Contenido del envase e información adicional.&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dolocatil pertenece al grupo de medicamentos llamados analgésicos y antipiréticos.&lt;/p&gt;
+&lt;p&gt;Se utiliza para el tratamiento de los síntomas del dolor y la fiebre.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;No tome Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Si es alérgico (hipersensible) al paracetamol o a alguno de los demás componentes de este
+medicamento (incluidos en la sección 6).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Advertencias y precauciones&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tomar más dosis de la recomendada en el apartado 3. Cómo tomar Dolocatil.&lt;/p&gt;
+&lt;p&gt;En pacientes asmáticos sensibles a ácido acetilsalicílico se deberá consultar con el médico antes de tomar
+este medicamento.&lt;/p&gt;
+&lt;p&gt;Si padece alguna enfermedad del hígado, riñón, corazón o del pulmón, o tiene anemia (disminución de la
+tasa de hemoglobina en la sangre, a causa o no de una disminución de glóbulos rojos), deberá consultar con
+su médico antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;Cuando está en tratamiento con algún medicamento para tratar la epilepsia debe consultar al médico antes
+de tomar este medicamento, debido a que cuando se usan al mismo tiempo, se disminuye la eficacia y se
+potencia la hepatotoxicidad del paracetamol, especialmente en tratamientos con dosis altas de paracetamol.&lt;/p&gt;
+&lt;p&gt;En alcohólicos crónicos se deberá tener la precaución de no tomar más de 2 g/en 24 horas de paracetamol.&lt;/p&gt;
+&lt;p&gt;Si el dolor se mantiene durante más de 5 días, la fiebre durante más de 3 días, o bien el dolor o la fiebre
+empeoran o aparecen otros síntomas, se debe consultar al médico y reevaluar la situación clínica.&lt;/p&gt;
+&lt;p&gt;En niños menores de 15 años consulte a su médico o farmacéutico ya que existen otras presentaciones con
+dosis que se adaptan a este grupo de pacientes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Otros medicamentos y Dolocatil:&lt;/strong&gt;
+Informe a su médico o farmacéutico si está utilizando o ha utilizado recientemente cualquier otro
+medicamento, incluso los adquiridos sin receta médica.
+El paracetamol puede tener interacciones con los siguientes medicamentos:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Medicamento para evitar coágulos en la sangre: Anticoagulantes orales (acenocumarol, warfarina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la epilepsia: Antiepilépticos (lamotrigina, fenitoina u otras hidantoínas,
+fenobarbital, metilfenobarbital, primidona, carbamacepina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la tuberculosis: (isoniazida, rifampicina)&lt;/li&gt;
+&lt;li&gt;Medicamentos para tratar la depresión y las convulsiones: Barbitúricos (utilizados como hipnóticos,
+sedantes y anticonvulsivantes)&lt;/li&gt;
+&lt;li&gt;Medicamentos para disminuir los niveles de colesterol en sangre: (colestiramina)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para aumentar la eliminación de orina (diuréticos del asa como los del grupo
+furosemida)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para el tratamiento de la gota (probenecid y sulfinpirazona)&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados para evitar nauseas y vómitos: Metoclopramida y domperidona&lt;/li&gt;
+&lt;li&gt;Medicamentos utilizados en el tratamiento de la tensión arterial alta (hipertensión) y las alteraciones
+del ritmo del corazón (arritmias cardiacas): Propranolol.&lt;/li&gt;
+&lt;li&gt;Flucloxacilina (antiobiótico), debido a un riesgo grave de alteración de la sangre y los fluidos (acidosis
+metabólica con alto desequilibrio aniónico) que debe ser tratada urgentemente y que puede ocurrir
+particularmente en caso de insuficiencia renal grave, sepsis (cuando las bacterias y sus toxinas circulan
+en la sangre que da lugar a daño de órganos), desnutrición, alcoholismo crónico y si se utilizan las
+dosis máximas diarias de paracetamol.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;No utilizar con otros analgésicos (medicamentos que disminuyen el dolor) sin consultar al médico.&lt;/p&gt;
+&lt;p&gt;Como norma general para cualquier medicamento es recomendable informar sistemáticamente al médico o
+farmacéutico si está en tratamiento con otro medicamento. En caso de tratamiento con anticoagulantes
+orales se puede administrar ocasionalmente como analgésico de elección.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Interferencias con pruebas analíticas:&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Si le van a realizar alguna prueba analítica (incluidos análisis de sangre, orina, pruebas cutáneas que
+utilizan alergenos, etc.) comunique al médico que está tomando este medicamento, ya que puede alterar los
+resultados de dichas pruebas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Dolocatil con alimentos, bebidas y alcohol&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La utilización de paracetamol en pacientes que consumen habitualmente alcohol (tres o más bebidas
+alcohólicas al día: cerveza, vino, licor... al día) puede provocar daño en el hígado.&lt;/p&gt;
+&lt;p&gt;La toma de este medicamento con alimentos no afecta a la eficacia del mismo.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo y lactancia:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada o en período de lactancia, cree que podría estar embarazada o tiene intención de
+quedarse embarazada, consulte a su médico o farmacéutico antes de utilizar este medicamento.&lt;/p&gt;
+&lt;p&gt;El consumo de medicamentos durante el embarazo puede ser peligroso para el embrión o el feto, y debe ser
+vigilado por su médico.&lt;/p&gt;
+&lt;p&gt;En caso necesario, se puede utilizar Dolocatil durante el embarazo. Debe utilizar la dosis más baja posible
+que reduzca el dolor o la fiebre y utilizarla durante el menor tiempo posible. Contacte con su médico si el
+dolor o la fiebre no disminuyen o si necesita tomar el medicamento con más frecuencia.
+Pueden aparecer pequeñas cantidades de paracetamol en la leche materna, por lo tanto se recomienda que
+consulte a su médico o farmacéutico antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La influencia del paracetamol sobre la capacidad de conducir y utilizar máquinas es nula o insignificante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las
+indicadas por su médico o farmacéutico. En caso de duda, consulte de nuevo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;Recuerde tomar su medicamento. Dolocatil debe tomarse por vía oral.&lt;/p&gt;
+&lt;p&gt;Según sus preferencias, los comprimidos se pueden ingerir directamente o partidos por la mitad, con ayuda
+de un vaso de líquido, preferentemente agua.&lt;/p&gt;
+&lt;p&gt;La ranura es sólo para poder fraccionar y facilitar la deglución pero no para dividir en dosis iguales.
+Consulte a su médico o farmacéutico si tiene dudas.&lt;/p&gt;
+&lt;p&gt;La dosis recomendada es:&lt;/p&gt;
+&lt;p&gt;Adultos y adolescentes mayores de 15 años: la dosis habitual es de 1 comprimido (1 g de paracetamol) 3
+veces al día. Las tomas deben espaciarse al menos 4 horas. No se tomarán más de 4 comprimidos (4 g) en
+24 horas.&lt;/p&gt;
+&lt;p&gt;Pacientes con enfermedades del hígado: antes de tomar este medicamento tienen que consultar a su médico.
+Deben tomar la cantidad de medicamento prescrita por su médico con un intervalo mínimo entre cada toma
+de 8h. No deben tomar más de 2 gramos de paracetamol en 24 horas, repartidos en 2 tomas.&lt;/p&gt;
+&lt;p&gt;Pacientes con enfermedades del riñón: antes de tomar este medicamento tienen que consultar a su médico.
+Tomar como máximo 500 miligramos por toma.
+Debido a la dosis, 1 gramo de paracetamol, no está indicado para este grupo de pacientes.&lt;/p&gt;
+&lt;p&gt;Pacientes de edad avanzada: deben consultar a su médico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en niños y adolescentes&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No utilizar en niños menores de 15 años.&lt;/p&gt;
+&lt;p&gt;Si se estima que la acción del medicamento es demasiado fuerte o débil, comuníqueselo a su médico o
+farmacéutico.&lt;/p&gt;
+&lt;p&gt;Cuando se requiera la administración de dosis inferiores a 1 gramo de paracetamol por toma se deberán
+emplear otras presentaciones de paracetamol que se adapten a la dosificación requerida.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si toma más Dolocatil del que debe&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Debe consultar inmediatamente a su médico o a su farmacéutico. En caso de sobredosis o ingestión
+accidental, acudir inmediatamente a un centro médico o llamar al Servicio de Información Toxicológica,
+(teléfono 91 562 04 20), indicando el medicamento y la cantidad ingerida.
+Si ha ingerido una sobredosis, debe acudir inmediatamente a un centro médico aunque no note los
+síntomas, ya que a menudo éstos no se manifiestan hasta pasados 3 días desde la ingestión de la sobredosis,
+incluso en casos de intoxicación grave.&lt;/p&gt;
+&lt;p&gt;Los síntomas de sobredosis pueden ser: mareos, vómitos, pérdida de apetito, coloración amarillenta de la
+piel y los ojos (ictericia), dolor abdominal e inflamación del páncreas (pancreatitis).&lt;/p&gt;
+&lt;p&gt;El tratamiento de la sobredosis es más eficaz si se inicia dentro de las 4 horas siguientes a la ingestión del
+medicamento.&lt;/p&gt;
+&lt;p&gt;Los pacientes en tratamiento con barbitúricos o los alcohólicos crónicos pueden ser más susceptibles a la
+toxicidad de una sobredosis de paracetamol.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si olvidó tomar Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tome una dosis doble para compensar las dosis olvidadas, simplemente tome la dosis olvidada cuando
+se acuerde, tomando las siguientes dosis con la separación entre tomas indicada en cada caso (al menos 4
+horas).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas
+las personas los sufran.&lt;/p&gt;
+&lt;p&gt;Efectos adversos raros que se pueden producir (pueden afectar hasta 1 de cada 1.000 personas), son:
+malestar, bajada de la tensión (hipotensión), y aumento de los niveles de transaminasas en sangre.&lt;/p&gt;
+&lt;p&gt;Efectos adversos muy raros que se pueden producir (pueden afectar hasta 1 de cada 10.000 personas) son:
+Enfermedades del riñón, orina turbia, dermatitis alérgica (erupción cutánea), ictericia (coloración
+amarillenta de la piel), alteraciones sanguíneas (agranulocitosis, leucopenia, neutropenia, anemia
+hemolítica) e hipoglucemia (bajada de azúcar en sangre). Se han notificado muy raramente casos de
+reacciones graves en la piel.&lt;/p&gt;
+&lt;p&gt;El paracetamol puede dañar el hígado cuando se toma en dosis altas o en tratamientos prolongados.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Comunicación de efectos adversos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico, incluso si se trata de
+posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos directamente a
+través del Sistema Español de Farmacovigilancia de medicamentos de Uso Humano:
+&lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;. Mediante la comunicación de efectos adversos usted puede contribuir a
+proporcionar más información sobre la seguridad de este medicamento.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/p&gt;
+&lt;p&gt;Este medicamento no requiere condiciones especiales de conservación.&lt;/p&gt;
+&lt;p&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase (después de
+CAD.). La fecha de caducidad es el último día del mes que se indica.&lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los
+medicamentos que no necesita en el Punto SIGRE de la farmacia. En caso de duda pregunte a su
+farmacéutico cómo deshacerse de los envases y de los medicamentos que ya no necesita. De esta forma,
+ayudará a proteger el medio ambiente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Composición de Dolocatil&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;El principio activo es paracetamol.&lt;/li&gt;
+&lt;li&gt;Los demás componentes son: povidona, estearato magnésico, sílice coloidal anhidra, almidón glicolato
+sódico (Tipo A) (origen: patata) y almidón pregelatinizado (origen: maíz).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Aspecto de Dolocatil y contenido del envase&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Comprimidos oblongos, de color blanco y ranurados, en envases de 20 y 40 comprimidos.
+Los comprimidos están ranurados lo que permite partirlos por la mitad.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular de la autorización de comercialización&lt;/strong&gt;
+Ferrer Internacional, S.A.
+Gran Vía Carlos III, 94
+08028 - Barcelona
+Responsable de la fabricación
+Ferrer Internacional, S.A.
+Joan XXIII, 10
+08950 – Esplugues de Llobregat (Barcelona)
+o
+Ferrer Internacional, S.A.
+Joan Buscallá, 1-9
+08173 - Sant Cugat del Vallés (Barcelona)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fecha de la última revisión de este prospecto: diciembre 2022&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La información detallada y actualizada de este medicamento está disponible en la página Web de la
+Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>72.741|0xE857DA811B4A6F3BD57810C45D2EA1ED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,6 +775,14 @@
       <color rgb="FFC7254E"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,10 +801,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,8 +828,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,7 +1199,7 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1012,13 +1220,13 @@
         <v>35</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" t="s">
         <v>119</v>
-      </c>
-      <c r="K2" t="s">
-        <v>120</v>
       </c>
       <c r="L2" s="14">
         <v>8028</v>
@@ -1033,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,13 +1304,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -1111,15 +1319,33 @@
         <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1221,10 +1447,10 @@
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1233,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1242,10 +1468,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1550,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -1333,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -1425,10 +1651,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1445,10 +1671,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1468,7 +1694,7 @@
         <v>108</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1495,7 +1721,7 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
@@ -1515,10 +1741,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1535,10 +1761,10 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1587,30 +1813,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,97 +1844,106 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
       <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>100000000000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{683A9142-4DA9-BB43-AB6B-95A701B5F77E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1760,10 +1995,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1840,10 +2075,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1935,7 +2170,7 @@
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
         <v>37</v>
@@ -1977,13 +2212,13 @@
         <v>672669</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1992,7 +2227,7 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>123456</v>
